--- a/xlsx/淡水学派与咸水学派_intext.xlsx
+++ b/xlsx/淡水学派与咸水学派_intext.xlsx
@@ -26,40 +26,40 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E9%AB%94%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>總體經濟學</t>
-  </si>
-  <si>
-    <t>政策_政策_貨幣政策_淡水学派与咸水学派</t>
+    <t>总体经济学</t>
+  </si>
+  <si>
+    <t>政策_政策_货币政策_淡水学派与咸水学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>市場經濟</t>
+    <t>市场经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8F%A4%E5%85%B8%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>新古典經濟學</t>
+    <t>新古典经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>芝加哥大學</t>
+    <t>芝加哥大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%85%A7%E5%9F%BA%E7%BE%8E%E9%9A%86%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>卡內基美隆大學</t>
+    <t>卡内基美隆大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B9%E6%96%AF%E7%89%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>羅徹斯特大學</t>
+    <t>罗彻斯特大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%8B%8F%E8%BE%BE%E5%A4%A7%E5%AD%A6</t>
@@ -77,61 +77,61 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E6%81%A9%E6%96%AF%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>凱恩斯主義</t>
+    <t>凯恩斯主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>哈佛大學</t>
+    <t>哈佛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E9%AD%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>耶魯大學</t>
+    <t>耶鲁大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>麻省理工學院</t>
+    <t>麻省理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E4%B8%B9%E7%A6%8F%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>史丹福大學</t>
+    <t>史丹福大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E5%85%8B%E8%90%8A%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>柏克萊加州大學</t>
+    <t>柏克莱加州大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>賓夕法尼亞大學</t>
+    <t>宾夕法尼亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%9E%97%E6%96%AF%E6%95%A6%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>普林斯敦大學</t>
+    <t>普林斯敦大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>哥倫比亞大學</t>
+    <t>哥伦比亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%B5%81%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>主流經濟學</t>
+    <t>主流经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Macroeconomics</t>
@@ -173,13 +173,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%BE%B7%E5%93%A5%E7%88%BE%E6%91%A9%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>斯德哥爾摩學派</t>
+    <t>斯德哥尔摩学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%B5%A6%E9%9D%A2%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>供給面學派</t>
+    <t>供给面学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E5%B1%95%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>貨幣經濟學</t>
+    <t>货币经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E6%A0%B9%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>雷根經濟學</t>
+    <t>雷根经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IS-LM%E6%A8%A1%E5%9E%8B</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%C2%B7%E5%85%8B%E8%90%8A%E5%9B%A0</t>
   </si>
   <si>
-    <t>勞倫斯·克萊因</t>
+    <t>劳伦斯·克莱因</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E5%8D%A2%E5%8D%A1%E6%96%AF</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%8A%C2%B7%E7%BE%85%E8%B3%93%E9%81%9C</t>
   </si>
   <si>
-    <t>瓊·羅賓遜</t>
+    <t>琼·罗宾逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E8%90%A8%E9%87%91%E7%89%B9</t>
